--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="C2">
-        <v>0.676056338028169</v>
+        <v>0.6162227602905569</v>
       </c>
       <c r="D2">
-        <v>0.0898876404494382</v>
+        <v>0.9531835205992509</v>
       </c>
       <c r="E2">
-        <v>0.1586776859504132</v>
+        <v>0.7485294117647059</v>
       </c>
       <c r="F2">
-        <v>0.1087449025826914</v>
+        <v>0.8592167454422688</v>
       </c>
       <c r="G2">
-        <v>0.09298859995529395</v>
+        <v>0.9335496613995485</v>
       </c>
       <c r="H2">
-        <v>0.5234082397003745</v>
+        <v>0.7938181206076673</v>
       </c>
       <c r="I2">
-        <v>48</v>
+        <v>509</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="K2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="L2">
-        <v>486</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5125376128385155</v>
+        <v>0.8966942148760331</v>
       </c>
       <c r="C2">
-        <v>0.9569288389513109</v>
+        <v>0.4063670411985019</v>
       </c>
       <c r="D2">
-        <v>0.6675375571521881</v>
+        <v>0.5592783505154639</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.676056338028169</v>
+        <v>0.6162227602905569</v>
       </c>
       <c r="C3">
-        <v>0.0898876404494382</v>
+        <v>0.9531835205992509</v>
       </c>
       <c r="D3">
-        <v>0.1586776859504132</v>
+        <v>0.7485294117647059</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="C4">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="D4">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="E4">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5942969754333423</v>
+        <v>0.7564584875832949</v>
       </c>
       <c r="C5">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="D5">
-        <v>0.4131076215513007</v>
+        <v>0.6539038811400849</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5942969754333423</v>
+        <v>0.756458487583295</v>
       </c>
       <c r="C6">
-        <v>0.5234082397003745</v>
+        <v>0.6797752808988764</v>
       </c>
       <c r="D6">
-        <v>0.4131076215513007</v>
+        <v>0.6539038811400849</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>486</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
